--- a/out/Frisksnit/Frisksnit Frederikssund Hospital (FSH), Køkken - Økologi statistik marts 2024.xlsx
+++ b/out/Frisksnit/Frisksnit Frederikssund Hospital (FSH), Køkken - Økologi statistik marts 2024.xlsx
@@ -14,6 +14,8 @@
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
+    <sheet name="FirstPass" sheetId="2" r:id="rId6"/>
+    <sheet name="SecondPass" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029" fullCalcOnLoad="1" fullPrecision="1"/>
   <extLst>
@@ -36,174 +38,186 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+  <si>
+    <t>1056930 - FRISKSNIT.dk</t>
+  </si>
+  <si>
+    <t>Rapporter » Kunder »</t>
+  </si>
+  <si>
+    <t>Omsætningsstatistik for kunder - perioden 01.03.24 - 31.03.24 - Frederikssund Hospital (FSH), Køkken</t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t>Gruppe</t>
+  </si>
+  <si>
+    <t>Nr.</t>
+  </si>
+  <si>
+    <t>Kunde / Vare</t>
+  </si>
+  <si>
+    <t>Enhed</t>
+  </si>
+  <si>
+    <t>Antal</t>
+  </si>
+  <si>
+    <t>Kg</t>
+  </si>
+  <si>
+    <t>Omsætning</t>
+  </si>
+  <si>
+    <t>Gulerødder</t>
+  </si>
+  <si>
+    <t>3122-1</t>
+  </si>
+  <si>
+    <t>Gulerod - Stave 10x10x50mm (1kg)</t>
+  </si>
+  <si>
+    <t>Rodfrugtmix</t>
+  </si>
+  <si>
+    <t>3932-5</t>
+  </si>
+  <si>
+    <t>Rodfrugtmix - Tern 20x20mm (5kg)</t>
+  </si>
+  <si>
+    <t>Løg - Rødløg - Skalotteløg</t>
+  </si>
+  <si>
+    <t>4231-1</t>
+  </si>
+  <si>
+    <t>Rødløg - Tern 5x5mm (1kg)</t>
+  </si>
+  <si>
+    <t>Porre - Forårsløg</t>
+  </si>
+  <si>
+    <t>4441-1</t>
+  </si>
+  <si>
+    <t>Porre - Skiver 2mm (1kg)</t>
+  </si>
+  <si>
+    <t>Frugtsnit</t>
+  </si>
+  <si>
+    <t>7505-32</t>
+  </si>
+  <si>
+    <t>Frugtsalat m/druer , håndskåret i lage (3,2kg)</t>
+  </si>
+  <si>
+    <t>7508-1</t>
+  </si>
+  <si>
+    <t>Frugtblanding (U/druer), 15x15mm SMÅ TERN håndskåret (1kg)</t>
+  </si>
+  <si>
+    <t>Kartofler</t>
+  </si>
+  <si>
+    <t>8551-3</t>
+  </si>
+  <si>
+    <t>Kartoffelbåde m/skræl (3kg vakuum)</t>
+  </si>
+  <si>
+    <t>Region H</t>
+  </si>
+  <si>
+    <t>Frederikssund Hospital (FSH), Køkken i alt:</t>
+  </si>
+  <si>
+    <t>Øko - Kartofler</t>
+  </si>
+  <si>
+    <t>Ø8541-3</t>
+  </si>
+  <si>
+    <t>Kartofler - Skrællet Skiver 4mm (3kg Vakuum) - Økologisk</t>
+  </si>
+  <si>
+    <t>Øko - Forkogte Kartofler</t>
+  </si>
+  <si>
+    <t>Ø8607-3</t>
+  </si>
+  <si>
+    <t>Kartofler - MOS, kogte, uden tilsat salt (3kg) - Økologisk</t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Øko%:</t>
+  </si>
   <si>
     <t>3% filler,38% containsProduct,19% containsProductNr,38% containsAmount,</t>
   </si>
   <si>
-    <t>1056930 - FRISKSNIT.dk</t>
-  </si>
-  <si>
     <t>6% filler,31% containsProductNr,62% containsAmount,</t>
   </si>
   <si>
-    <t>Rapporter » Kunder »</t>
-  </si>
-  <si>
     <t>9% filler,90% NrHeader,</t>
   </si>
   <si>
-    <t>Omsætningsstatistik for kunder - perioden 01.03.24 - 31.03.24 - Frederikssund Hospital (FSH), Køkken</t>
-  </si>
-  <si>
     <t>9% filler,90% productNameHeader,</t>
   </si>
   <si>
-    <t> </t>
-  </si>
-  <si>
     <t>9% filler,90% QuantityHeader,</t>
   </si>
   <si>
-    <t>Gruppe</t>
-  </si>
-  <si>
-    <t>Nr.</t>
-  </si>
-  <si>
-    <t>Kunde / Vare</t>
-  </si>
-  <si>
-    <t>Enhed</t>
-  </si>
-  <si>
-    <t>Antal</t>
-  </si>
-  <si>
-    <t>Kg</t>
-  </si>
-  <si>
-    <t>Omsætning</t>
-  </si>
-  <si>
     <t>4% filler,47% SingleMassHeader,47% TotalMassHeader,</t>
   </si>
   <si>
-    <t>Gulerødder</t>
-  </si>
-  <si>
-    <t>3122-1</t>
-  </si>
-  <si>
-    <t>Gulerod - Stave 10x10x50mm (1kg)</t>
-  </si>
-  <si>
     <t>9% filler,90% containsProduct,</t>
   </si>
   <si>
-    <t>Rodfrugtmix</t>
-  </si>
-  <si>
-    <t>3932-5</t>
-  </si>
-  <si>
-    <t>Rodfrugtmix - Tern 20x20mm (5kg)</t>
-  </si>
-  <si>
     <t>4% filler,47% containsProductNr,47% containsAmount,</t>
   </si>
   <si>
-    <t>Løg - Rødløg - Skalotteløg</t>
-  </si>
-  <si>
-    <t>4231-1</t>
-  </si>
-  <si>
-    <t>Rødløg - Tern 5x5mm (1kg)</t>
-  </si>
-  <si>
     <t>1% filler,13% containsTotalMass,13% containsSingleMass,13% containsProduct,6% containsProductNr,13% containsAmount,13% SingleMassHeader,13% TotalMassHeader,13% QuantityHeader,</t>
   </si>
   <si>
-    <t>Porre - Forårsløg</t>
-  </si>
-  <si>
-    <t>4441-1</t>
-  </si>
-  <si>
-    <t>Porre - Skiver 2mm (1kg)</t>
-  </si>
-  <si>
     <t>5% filler,10% containsTotalMass,10% containsSingleMass,52% isInteger,10% containsProductNr,10% containsAmount,</t>
   </si>
   <si>
-    <t>Frugtsnit</t>
-  </si>
-  <si>
-    <t>7505-32</t>
-  </si>
-  <si>
-    <t>Frugtsalat m/druer , håndskåret i lage (3,2kg)</t>
-  </si>
-  <si>
     <t>4% filler,23% containsTotalMass,23% containsSingleMass,47% isDecimal,</t>
   </si>
   <si>
-    <t>7508-1</t>
-  </si>
-  <si>
-    <t>Frugtblanding (U/druer), 15x15mm SMÅ TERN håndskåret (1kg)</t>
-  </si>
-  <si>
     <t>4% filler,47% containsProduct,47% QuantityHeader,</t>
   </si>
   <si>
-    <t>Kartofler</t>
-  </si>
-  <si>
-    <t>8551-3</t>
-  </si>
-  <si>
-    <t>Kartoffelbåde m/skræl (3kg vakuum)</t>
-  </si>
-  <si>
     <t>1% filler,15% containsTotalMass,15% containsSingleMass,15% containsProduct,7% containsProductNr,15% containsAmount,15% SingleMassHeader,15% TotalMassHeader,</t>
   </si>
   <si>
-    <t>Region H</t>
-  </si>
-  <si>
-    <t>Frederikssund Hospital (FSH), Køkken i alt:</t>
-  </si>
-  <si>
     <t>2% filler,21% containsSingleMass,21% containsProduct,10% containsProductNr,21% containsAmount,21% SingleMassHeader,</t>
   </si>
   <si>
-    <t>Øko - Kartofler</t>
-  </si>
-  <si>
-    <t>Ø8541-3</t>
-  </si>
-  <si>
-    <t>Kartofler - Skrællet Skiver 4mm (3kg Vakuum) - Økologisk</t>
-  </si>
-  <si>
-    <t>Øko - Forkogte Kartofler</t>
-  </si>
-  <si>
-    <t>Ø8607-3</t>
-  </si>
-  <si>
-    <t>Kartofler - MOS, kogte, uden tilsat salt (3kg) - Økologisk</t>
-  </si>
-  <si>
-    <t>Total:</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Øko%:</t>
+    <t xml:space="preserve">VARENR, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRODUKT, ANTAL, STK. MASSE, TOTAL MASSE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTAL, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STK. MASSE, TOTAL MASSE </t>
   </si>
 </sst>
 </file>
@@ -232,7 +246,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -309,6 +323,26 @@
         <fgColor rgb="FF747D9B"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF006400"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2E8B57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -323,7 +357,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" applyNumberFormat="1" fontId="1" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -338,10 +372,14 @@
     <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="10" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" applyFill="1" borderId="0"/>
     <xf numFmtId="0" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="0" xfId="0"/>
@@ -397,6 +435,26 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" applyNumberFormat="1" fontId="3" applyFont="1" fillId="12" applyFill="1" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="16" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="17" applyFill="1" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="18" applyFill="1" borderId="0"/>
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="17" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="17" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="19" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="18" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -732,6 +790,412 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{664E9FDD-804E-4E04-B193-E1A80A6466CE}">
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="193.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="1" width="92.28515625" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="8.140625" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="57.7109375" customWidth="1"/>
+    <col min="4" max="5" bestFit="1" width="6.5703125" customWidth="1"/>
+    <col min="6" max="6" bestFit="1" width="8.140625" customWidth="1"/>
+    <col min="7" max="7" bestFit="1" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
+        <f>+D7*E7</f>
+        <v>1</v>
+      </c>
+      <c r="G7" s="5">
+        <v>25.63</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5</v>
+      </c>
+      <c r="E8" s="5">
+        <v>8</v>
+      </c>
+      <c r="F8" s="5">
+        <f ref="F8:F13" t="shared" si="0">+D8*E8</f>
+        <v>40</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1360.8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
+        <v>3</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G9" s="5">
+        <v>73.35</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5">
+        <v>3</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G10" s="5">
+        <v>141.12</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="E11" s="5">
+        <v>11</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="0"/>
+        <v>35.2</v>
+      </c>
+      <c r="G11" s="5">
+        <v>2292.18</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5">
+        <v>71</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="G12" s="5">
+        <v>4058.36</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="5">
+        <v>13</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="G13" s="5">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3110</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="6">
+        <f>SUM(F7:F13)</f>
+        <v>192.2</v>
+      </c>
+      <c r="G14" s="6">
+        <f>SUM(G7:G13)</f>
+        <v>8575.44</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3</v>
+      </c>
+      <c r="E17" s="5">
+        <v>6</v>
+      </c>
+      <c r="F17" s="5">
+        <f ref="F17:F18" t="shared" si="1">+D17*E17</f>
+        <v>18</v>
+      </c>
+      <c r="G17" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3</v>
+      </c>
+      <c r="E18" s="5">
+        <v>26</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="G18" s="5">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2">
+        <v>3110</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="6">
+        <f>SUM(F17:F18)</f>
+        <v>96</v>
+      </c>
+      <c r="G19" s="6">
+        <f>SUM(G17:G18)</f>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="6">
+        <f>+F14+F19</f>
+        <v>288.2</v>
+      </c>
+      <c r="G21" s="6">
+        <f>+G14+G19</f>
+        <v>10975.44</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="9">
+        <f>+F19/F21</f>
+        <v>0.3331020124913255</v>
+      </c>
+      <c r="G22" s="9">
+        <f>+G19/G21</f>
+        <v>0.21867004876342086</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B082DC8-A4B1-4943-ABE3-A4783ED8B9B3}">
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
@@ -751,287 +1215,287 @@
     <row r="1">
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="10" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="H2" s="11" t="s">
-        <v>2</v>
+      <c r="H2" s="13" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="H3" s="13" t="s">
-        <v>4</v>
+      <c r="H3" s="15" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="10" t="s">
-        <v>5</v>
+      <c r="A4" s="12" t="s">
+        <v>2</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="H4" s="15" t="s">
-        <v>6</v>
+      <c r="H4" s="17" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="H5" s="17" t="s">
-        <v>8</v>
+      <c r="H5" s="19" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="G6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="H6" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="B7" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="C7" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="24">
+      <c r="D7" s="26">
         <v>1</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="28">
         <v>1</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="28">
         <f>+D7*E7</f>
         <v>1</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="29">
         <v>25.63</v>
       </c>
-      <c r="H7" s="20" t="s">
-        <v>20</v>
+      <c r="H7" s="22" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="24">
+      <c r="A8" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="26">
         <v>5</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="28">
         <v>8</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="28">
         <f ref="F8:F13" t="shared" si="0">+D8*E8</f>
         <v>40</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="29">
         <v>1360.8</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="26">
+        <v>1</v>
+      </c>
+      <c r="E9" s="28">
+        <v>3</v>
+      </c>
+      <c r="F9" s="28">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G9" s="29">
+        <v>73.35</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="26">
+        <v>1</v>
+      </c>
+      <c r="E10" s="28">
+        <v>3</v>
+      </c>
+      <c r="F10" s="28">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G10" s="29">
+        <v>141.12</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="23" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="20" t="s">
+      <c r="C11" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="24">
-        <v>1</v>
-      </c>
-      <c r="E9" s="26">
-        <v>3</v>
-      </c>
-      <c r="F9" s="26">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G9" s="27">
-        <v>73.35</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="24">
-        <v>1</v>
-      </c>
-      <c r="E10" s="26">
-        <v>3</v>
-      </c>
-      <c r="F10" s="26">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G10" s="27">
-        <v>141.12</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="32">
+      <c r="D11" s="34">
         <v>3.2</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="28">
         <v>11</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="29">
         <f t="shared" si="0"/>
         <v>35.2</v>
       </c>
-      <c r="G11" s="27">
+      <c r="G11" s="29">
         <v>2292.18</v>
       </c>
-      <c r="H11" s="28" t="s">
-        <v>36</v>
+      <c r="H11" s="30" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="24">
+      <c r="A12" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="26">
         <v>1</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="28">
         <v>71</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="28">
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
-      <c r="G12" s="27">
+      <c r="G12" s="29">
         <v>4058.36</v>
       </c>
-      <c r="H12" s="29" t="s">
-        <v>39</v>
+      <c r="H12" s="31" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="24">
-        <v>3</v>
-      </c>
-      <c r="E13" s="26">
+      <c r="A13" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="26">
+        <v>3</v>
+      </c>
+      <c r="E13" s="28">
         <v>13</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="28">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="28">
         <v>624</v>
       </c>
-      <c r="H13" s="31" t="s">
-        <v>43</v>
+      <c r="H13" s="33" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="33">
+        <v>31</v>
+      </c>
+      <c r="B14" s="35">
         <v>3110</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="34">
+      <c r="F14" s="36">
         <f>SUM(F7:F13)</f>
         <v>192.2</v>
       </c>
-      <c r="G14" s="34">
+      <c r="G14" s="36">
         <f>SUM(G7:G13)</f>
         <v>8575.44</v>
       </c>
-      <c r="H14" s="36" t="s">
-        <v>46</v>
+      <c r="H14" s="38" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="15">
@@ -1043,131 +1507,537 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="G16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="17">
-      <c r="A17" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="24">
-        <v>3</v>
-      </c>
-      <c r="E17" s="26">
+      <c r="A17" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="26">
+        <v>3</v>
+      </c>
+      <c r="E17" s="28">
         <v>6</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="28">
         <f ref="F17:F18" t="shared" si="1">+D17*E17</f>
         <v>18</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="28">
         <v>450</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="24">
-        <v>3</v>
-      </c>
-      <c r="E18" s="26">
+      <c r="A18" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="26">
+        <v>3</v>
+      </c>
+      <c r="E18" s="28">
         <v>26</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F18" s="28">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="G18" s="26">
+      <c r="G18" s="28">
         <v>1950</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="33">
+        <v>31</v>
+      </c>
+      <c r="B19" s="35">
         <v>3110</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="37">
+      <c r="F19" s="39">
         <f>SUM(F17:F18)</f>
         <v>96</v>
       </c>
-      <c r="G19" s="37">
+      <c r="G19" s="39">
         <f>SUM(G17:G18)</f>
         <v>2400</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="34">
+        <v>40</v>
+      </c>
+      <c r="F21" s="36">
         <f>+F14+F19</f>
         <v>288.2</v>
       </c>
-      <c r="G21" s="34">
+      <c r="G21" s="36">
         <f>+G14+G19</f>
         <v>10975.44</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="38">
+      <c r="A22" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="40">
         <f>+F19/F21</f>
         <v>0.3331020124913255</v>
       </c>
-      <c r="G22" s="38">
+      <c r="G22" s="40">
+        <f>+G19/G21</f>
+        <v>0.21867004876342086</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C6119DA-2D1C-4AD5-BA5F-878F0C548AEC}">
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="193.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="1" width="92.28515625" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="8.140625" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="57.7109375" customWidth="1"/>
+    <col min="4" max="5" bestFit="1" width="6.5703125" customWidth="1"/>
+    <col min="6" max="6" bestFit="1" width="8.140625" customWidth="1"/>
+    <col min="7" max="7" bestFit="1" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="47">
+        <v>1</v>
+      </c>
+      <c r="F7" s="48">
+        <f>+D7*E7</f>
+        <v>1</v>
+      </c>
+      <c r="G7" s="5">
+        <v>25.63</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5</v>
+      </c>
+      <c r="E8" s="47">
+        <v>8</v>
+      </c>
+      <c r="F8" s="48">
+        <f ref="F8:F13" t="shared" si="0">+D8*E8</f>
+        <v>40</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1360.8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="47">
+        <v>3</v>
+      </c>
+      <c r="F9" s="48">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G9" s="5">
+        <v>73.35</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="47">
+        <v>3</v>
+      </c>
+      <c r="F10" s="48">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G10" s="5">
+        <v>141.12</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="E11" s="47">
+        <v>11</v>
+      </c>
+      <c r="F11" s="48">
+        <f t="shared" si="0"/>
+        <v>35.2</v>
+      </c>
+      <c r="G11" s="5">
+        <v>2292.18</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="47">
+        <v>71</v>
+      </c>
+      <c r="F12" s="48">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="G12" s="5">
+        <v>4058.36</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="47">
+        <v>13</v>
+      </c>
+      <c r="F13" s="48">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="G13" s="5">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3110</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="6">
+        <f>SUM(F7:F13)</f>
+        <v>192.2</v>
+      </c>
+      <c r="G14" s="6">
+        <f>SUM(G7:G13)</f>
+        <v>8575.44</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3</v>
+      </c>
+      <c r="E17" s="47">
+        <v>6</v>
+      </c>
+      <c r="F17" s="48">
+        <f ref="F17:F18" t="shared" si="1">+D17*E17</f>
+        <v>18</v>
+      </c>
+      <c r="G17" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3</v>
+      </c>
+      <c r="E18" s="47">
+        <v>26</v>
+      </c>
+      <c r="F18" s="48">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="G18" s="5">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2">
+        <v>3110</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="6">
+        <f>SUM(F17:F18)</f>
+        <v>96</v>
+      </c>
+      <c r="G19" s="6">
+        <f>SUM(G17:G18)</f>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="6">
+        <f>+F14+F19</f>
+        <v>288.2</v>
+      </c>
+      <c r="G21" s="6">
+        <f>+G14+G19</f>
+        <v>10975.44</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="9">
+        <f>+F19/F21</f>
+        <v>0.3331020124913255</v>
+      </c>
+      <c r="G22" s="9">
         <f>+G19/G21</f>
         <v>0.21867004876342086</v>
       </c>

--- a/out/Frisksnit/Frisksnit Frederikssund Hospital (FSH), Køkken - Økologi statistik marts 2024.xlsx
+++ b/out/Frisksnit/Frisksnit Frederikssund Hospital (FSH), Køkken - Økologi statistik marts 2024.xlsx
@@ -196,7 +196,7 @@
     <t>5% filler,10% containsTotalMass,10% containsSingleMass,52% isInteger,10% containsProductNr,10% containsAmount,</t>
   </si>
   <si>
-    <t>4% filler,23% containsTotalMass,23% containsSingleMass,47% isDecimal,</t>
+    <t>4% filler,22% containsTotalMass,22% containsSingleMass,45% isDecimal,4% containsAmount,</t>
   </si>
   <si>
     <t>4% filler,47% containsProduct,47% QuantityHeader,</t>
@@ -211,7 +211,7 @@
     <t xml:space="preserve">VARENR, </t>
   </si>
   <si>
-    <t xml:space="preserve">PRODUKT, ANTAL, STK. MASSE, TOTAL MASSE </t>
+    <t xml:space="preserve">PRODUKT, </t>
   </si>
   <si>
     <t xml:space="preserve">ANTAL, </t>
@@ -305,7 +305,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE3DD42"/>
+        <fgColor rgb="FFD8D34A"/>
       </patternFill>
     </fill>
     <fill>
@@ -357,7 +357,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" applyNumberFormat="1" fontId="1" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -440,19 +440,29 @@
     </xf>
     <xf numFmtId="0" fontId="2" applyFont="1" fillId="17" applyFill="1" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="18" applyFill="1" borderId="0"/>
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="18" applyFill="1" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" applyFont="1" fillId="17" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="19" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" applyFont="1" fillId="17" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="19" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="19" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="18" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="2" applyFont="1" fillId="18" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1195,7 +1205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B082DC8-A4B1-4943-ABE3-A4783ED8B9B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0823FF84-F28C-411C-A69F-089E5BE701F4}">
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
@@ -1643,7 +1653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C6119DA-2D1C-4AD5-BA5F-878F0C548AEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B472264-2223-4180-856A-2AFB4FF717B2}">
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
@@ -1699,16 +1709,16 @@
       <c r="B6" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="45" t="s">
         <v>57</v>
       </c>
       <c r="D6" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="48" t="s">
         <v>59</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -1722,16 +1732,16 @@
       <c r="B7" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="46" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
-      <c r="E7" s="47">
+      <c r="E7" s="49">
         <v>1</v>
       </c>
-      <c r="F7" s="48">
+      <c r="F7" s="51">
         <f>+D7*E7</f>
         <v>1</v>
       </c>
@@ -1746,16 +1756,16 @@
       <c r="B8" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="46" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="1">
         <v>5</v>
       </c>
-      <c r="E8" s="47">
+      <c r="E8" s="49">
         <v>8</v>
       </c>
-      <c r="F8" s="48">
+      <c r="F8" s="51">
         <f ref="F8:F13" t="shared" si="0">+D8*E8</f>
         <v>40</v>
       </c>
@@ -1770,16 +1780,16 @@
       <c r="B9" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="46" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="47">
-        <v>3</v>
-      </c>
-      <c r="F9" s="48">
+      <c r="E9" s="49">
+        <v>3</v>
+      </c>
+      <c r="F9" s="51">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1794,16 +1804,16 @@
       <c r="B10" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="46" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="47">
-        <v>3</v>
-      </c>
-      <c r="F10" s="48">
+      <c r="E10" s="49">
+        <v>3</v>
+      </c>
+      <c r="F10" s="51">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1818,16 +1828,16 @@
       <c r="B11" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="46" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="1">
         <v>3.2</v>
       </c>
-      <c r="E11" s="47">
+      <c r="E11" s="49">
         <v>11</v>
       </c>
-      <c r="F11" s="48">
+      <c r="F11" s="51">
         <f t="shared" si="0"/>
         <v>35.2</v>
       </c>
@@ -1842,16 +1852,16 @@
       <c r="B12" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="46" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
-      <c r="E12" s="47">
+      <c r="E12" s="49">
         <v>71</v>
       </c>
-      <c r="F12" s="48">
+      <c r="F12" s="51">
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
@@ -1866,16 +1876,16 @@
       <c r="B13" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="46" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="1">
         <v>3</v>
       </c>
-      <c r="E13" s="47">
+      <c r="E13" s="49">
         <v>13</v>
       </c>
-      <c r="F13" s="48">
+      <c r="F13" s="51">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
@@ -1887,15 +1897,15 @@
       <c r="A14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="44">
         <v>3110</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="47" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="3"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="6">
+      <c r="E14" s="50"/>
+      <c r="F14" s="52">
         <f>SUM(F7:F13)</f>
         <v>192.2</v>
       </c>
@@ -1918,16 +1928,16 @@
       <c r="B16" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="45" t="s">
         <v>57</v>
       </c>
       <c r="D16" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="46" t="s">
+      <c r="E16" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="46" t="s">
+      <c r="F16" s="48" t="s">
         <v>59</v>
       </c>
       <c r="G16" s="4" t="s">
@@ -1941,16 +1951,16 @@
       <c r="B17" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="46" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="1">
         <v>3</v>
       </c>
-      <c r="E17" s="47">
+      <c r="E17" s="49">
         <v>6</v>
       </c>
-      <c r="F17" s="48">
+      <c r="F17" s="51">
         <f ref="F17:F18" t="shared" si="1">+D17*E17</f>
         <v>18</v>
       </c>
@@ -1965,16 +1975,16 @@
       <c r="B18" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="C18" s="46" t="s">
         <v>38</v>
       </c>
       <c r="D18" s="1">
         <v>3</v>
       </c>
-      <c r="E18" s="47">
+      <c r="E18" s="49">
         <v>26</v>
       </c>
-      <c r="F18" s="48">
+      <c r="F18" s="51">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
@@ -1986,15 +1996,15 @@
       <c r="A19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="44">
         <v>3110</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="47" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="3"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="6">
+      <c r="E19" s="50"/>
+      <c r="F19" s="52">
         <f>SUM(F17:F18)</f>
         <v>96</v>
       </c>
